--- a/mixs-templates/extensions_only/HostAssociated.xlsx
+++ b/mixs-templates/extensions_only/HostAssociated.xlsx
@@ -674,7 +674,10 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
+  <dataValidations count="4">
+    <dataValidation sqref="G2:G1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"breeder's line,clonal selection,hybrid,inbred line,mutant,natural,semi-natural,wild"</formula1>
+    </dataValidation>
     <dataValidation sqref="J2:J1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"active surveillance in response to an outbreak,active surveillance not initiated by an outbreak,farm sample,market sample,other"</formula1>
     </dataValidation>
